--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2424.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2424.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.032774396235304</v>
+        <v>1.200453400611877</v>
       </c>
       <c r="B1">
-        <v>2.09069696448711</v>
+        <v>1.666729927062988</v>
       </c>
       <c r="C1">
-        <v>9.001460304769187</v>
+        <v>3.649246215820312</v>
       </c>
       <c r="D1">
-        <v>2.099288574709694</v>
+        <v>3.440254926681519</v>
       </c>
       <c r="E1">
-        <v>0.9951625933651644</v>
+        <v>0.9707048535346985</v>
       </c>
     </row>
   </sheetData>
